--- a/biology/Médecine/Hôpital_civil_Marie_Curie/Hôpital_civil_Marie_Curie.xlsx
+++ b/biology/Médecine/Hôpital_civil_Marie_Curie/Hôpital_civil_Marie_Curie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_civil_Marie_Curie</t>
+          <t>Hôpital_civil_Marie_Curie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital civil Marie Curie est un hôpital à Charleroi, inauguré en 2014. L'hôpital remplace l'ancien hôpital civil de Charleroi.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_civil_Marie_Curie</t>
+          <t>Hôpital_civil_Marie_Curie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 30 juin 2003, le conseil d'administration de l'Intercommunale de Santé Publique du Pays de Charleroi avalise le projet de construction d'un nouvel hôpital sur le lieu-dit « Bon-Air » à Lodelinsart pour remplacer l'établissement hospitalier situé au boulevard Zoé Drion dans le centre-ville[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 juin 2003, le conseil d'administration de l'Intercommunale de Santé Publique du Pays de Charleroi avalise le projet de construction d'un nouvel hôpital sur le lieu-dit « Bon-Air » à Lodelinsart pour remplacer l'établissement hospitalier situé au boulevard Zoé Drion dans le centre-ville.
 Le 2 août 2005, le permis d'urbanisme permettant la construction de l'édifice est accordé.
 Le 25 octobre 2006, la première pierre est posée sur le site.
 En septembre 2011, le nom de l’hôpital est choisi en référence à la scientifique Marie Curie.
-Du 10 au 19 octobre 2014, a lieu le déménagement depuis l'ancien site vers les nouvelles installations[2].
-L'inauguration officielle a lieu le dimanche 16 novembre 2014[3].
+Du 10 au 19 octobre 2014, a lieu le déménagement depuis l'ancien site vers les nouvelles installations.
+L'inauguration officielle a lieu le dimanche 16 novembre 2014.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_civil_Marie_Curie</t>
+          <t>Hôpital_civil_Marie_Curie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bâtiment a été conçu par le cabinet Art &amp; Build[4].
-Le bâtiment ne comporte que des chambres individuelles (40 %) ou doubles (60 %)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâtiment a été conçu par le cabinet Art &amp; Build.
+Le bâtiment ne comporte que des chambres individuelles (40 %) ou doubles (60 %).
 	Œuvres exposées dans l'atrium de l'hôpital.
 			Charles Szymkowicz - Hommage à Marie Curie (extrait) (2013-2014).
 			Albert Einstein (2015) par Charles Szymkowic.
